--- a/natmiOut/OldD2/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Acvr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H2">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I2">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J2">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.28312771147252</v>
+        <v>8.2840475</v>
       </c>
       <c r="N2">
-        <v>8.28312771147252</v>
+        <v>16.568095</v>
       </c>
       <c r="O2">
-        <v>0.1651797650911165</v>
+        <v>0.162064909128062</v>
       </c>
       <c r="P2">
-        <v>0.1651797650911165</v>
+        <v>0.1267883207199013</v>
       </c>
       <c r="Q2">
-        <v>43.84944036048297</v>
+        <v>1.09076467634875</v>
       </c>
       <c r="R2">
-        <v>43.84944036048297</v>
+        <v>4.363058705395</v>
       </c>
       <c r="S2">
-        <v>0.1041307771661458</v>
+        <v>0.001844189171757069</v>
       </c>
       <c r="T2">
-        <v>0.1041307771661458</v>
+        <v>0.001135212680204902</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H3">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I3">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J3">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.0884079620058</v>
+        <v>10.55762366666667</v>
       </c>
       <c r="N3">
-        <v>10.0884079620058</v>
+        <v>31.672871</v>
       </c>
       <c r="O3">
-        <v>0.2011801478081069</v>
+        <v>0.2065440016062932</v>
       </c>
       <c r="P3">
-        <v>0.2011801478081069</v>
+        <v>0.2423785067907964</v>
       </c>
       <c r="Q3">
-        <v>53.40628065525179</v>
+        <v>1.390127587001833</v>
       </c>
       <c r="R3">
-        <v>53.40628065525179</v>
+        <v>8.340765522010999</v>
       </c>
       <c r="S3">
-        <v>0.1268257351625506</v>
+        <v>0.002350331193242535</v>
       </c>
       <c r="T3">
-        <v>0.1268257351625506</v>
+        <v>0.002170161673849294</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H4">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I4">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J4">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.86060316207513</v>
+        <v>5.931556333333333</v>
       </c>
       <c r="N4">
-        <v>5.86060316207513</v>
+        <v>17.794669</v>
       </c>
       <c r="O4">
-        <v>0.1168704730053873</v>
+        <v>0.1160419635630586</v>
       </c>
       <c r="P4">
-        <v>0.1168704730053873</v>
+        <v>0.13617475034254</v>
       </c>
       <c r="Q4">
-        <v>31.02501588571866</v>
+        <v>0.7810109881881666</v>
       </c>
       <c r="R4">
-        <v>31.02501588571866</v>
+        <v>4.686065929129</v>
       </c>
       <c r="S4">
-        <v>0.07367617440981909</v>
+        <v>0.001320479145200507</v>
       </c>
       <c r="T4">
-        <v>0.07367617440981909</v>
+        <v>0.001219255073612813</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H5">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I5">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J5">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.42173999120912</v>
+        <v>5.460941333333333</v>
       </c>
       <c r="N5">
-        <v>5.42173999120912</v>
+        <v>16.382824</v>
       </c>
       <c r="O5">
-        <v>0.1081187891009624</v>
+        <v>0.1068350900861377</v>
       </c>
       <c r="P5">
-        <v>0.1081187891009624</v>
+        <v>0.1253705235037399</v>
       </c>
       <c r="Q5">
-        <v>28.70175043483736</v>
+        <v>0.7190448758306667</v>
       </c>
       <c r="R5">
-        <v>28.70175043483736</v>
+        <v>4.314269254984</v>
       </c>
       <c r="S5">
-        <v>0.06815903587909461</v>
+        <v>0.001215711145371142</v>
       </c>
       <c r="T5">
-        <v>0.06815903587909461</v>
+        <v>0.001122518282419626</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -788,49 +788,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H6">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I6">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J6">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.14538998022879</v>
+        <v>6.493894666666667</v>
       </c>
       <c r="N6">
-        <v>6.14538998022879</v>
+        <v>19.481684</v>
       </c>
       <c r="O6">
-        <v>0.1225496103267296</v>
+        <v>0.1270432658722128</v>
       </c>
       <c r="P6">
-        <v>0.1225496103267296</v>
+        <v>0.1490847317785038</v>
       </c>
       <c r="Q6">
-        <v>32.53262786914667</v>
+        <v>0.8550543577073333</v>
       </c>
       <c r="R6">
-        <v>32.53262786914667</v>
+        <v>5.130326146244</v>
       </c>
       <c r="S6">
-        <v>0.07725635254228236</v>
+        <v>0.001445666532790602</v>
       </c>
       <c r="T6">
-        <v>0.07725635254228236</v>
+        <v>0.001334845961985669</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H7">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I7">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J7">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.3468717139337</v>
+        <v>14.3875515</v>
       </c>
       <c r="N7">
-        <v>14.3468717139337</v>
+        <v>28.775103</v>
       </c>
       <c r="O7">
-        <v>0.2861012146676974</v>
+        <v>0.2814707697442357</v>
       </c>
       <c r="P7">
-        <v>0.2861012146676974</v>
+        <v>0.2202031668645185</v>
       </c>
       <c r="Q7">
-        <v>75.94984859503008</v>
+        <v>1.89441609978075</v>
       </c>
       <c r="R7">
-        <v>75.94984859503008</v>
+        <v>7.577664399123</v>
       </c>
       <c r="S7">
-        <v>0.180360722846965</v>
+        <v>0.003202947192709504</v>
       </c>
       <c r="T7">
-        <v>0.180360722846965</v>
+        <v>0.001971612415295912</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H8">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I8">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J8">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.28312771147252</v>
+        <v>8.2840475</v>
       </c>
       <c r="N8">
-        <v>8.28312771147252</v>
+        <v>16.568095</v>
       </c>
       <c r="O8">
-        <v>0.1651797650911165</v>
+        <v>0.162064909128062</v>
       </c>
       <c r="P8">
-        <v>0.1651797650911165</v>
+        <v>0.1267883207199013</v>
       </c>
       <c r="Q8">
-        <v>25.70771128321283</v>
+        <v>50.26893672299666</v>
       </c>
       <c r="R8">
-        <v>25.70771128321283</v>
+        <v>301.61362033798</v>
       </c>
       <c r="S8">
-        <v>0.0610489879249707</v>
+        <v>0.08499122752179322</v>
       </c>
       <c r="T8">
-        <v>0.0610489879249707</v>
+        <v>0.07847604844436398</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H9">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I9">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J9">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.0884079620058</v>
+        <v>10.55762366666667</v>
       </c>
       <c r="N9">
-        <v>10.0884079620058</v>
+        <v>31.672871</v>
       </c>
       <c r="O9">
-        <v>0.2011801478081069</v>
+        <v>0.2065440016062932</v>
       </c>
       <c r="P9">
-        <v>0.2011801478081069</v>
+        <v>0.2423785067907964</v>
       </c>
       <c r="Q9">
-        <v>31.31062181201177</v>
+        <v>64.06536370595155</v>
       </c>
       <c r="R9">
-        <v>31.31062181201177</v>
+        <v>576.5882733535641</v>
       </c>
       <c r="S9">
-        <v>0.07435441264555633</v>
+        <v>0.1083172682367086</v>
       </c>
       <c r="T9">
-        <v>0.07435441264555633</v>
+        <v>0.1500209745880918</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H10">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I10">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J10">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.86060316207513</v>
+        <v>5.931556333333333</v>
       </c>
       <c r="N10">
-        <v>5.86060316207513</v>
+        <v>17.794669</v>
       </c>
       <c r="O10">
-        <v>0.1168704730053873</v>
+        <v>0.1160419635630586</v>
       </c>
       <c r="P10">
-        <v>0.1168704730053873</v>
+        <v>0.13617475034254</v>
       </c>
       <c r="Q10">
-        <v>18.18910673409475</v>
+        <v>35.99364078842178</v>
       </c>
       <c r="R10">
-        <v>18.18910673409475</v>
+        <v>323.942767095796</v>
       </c>
       <c r="S10">
-        <v>0.04319429859556823</v>
+        <v>0.06085554843627669</v>
       </c>
       <c r="T10">
-        <v>0.04319429859556823</v>
+        <v>0.0842858099555454</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H11">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I11">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J11">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.42173999120912</v>
+        <v>5.460941333333333</v>
       </c>
       <c r="N11">
-        <v>5.42173999120912</v>
+        <v>16.382824</v>
       </c>
       <c r="O11">
-        <v>0.1081187891009624</v>
+        <v>0.1068350900861377</v>
       </c>
       <c r="P11">
-        <v>0.1081187891009624</v>
+        <v>0.1253705235037399</v>
       </c>
       <c r="Q11">
-        <v>16.82704060612326</v>
+        <v>33.13787304253511</v>
       </c>
       <c r="R11">
-        <v>16.82704060612326</v>
+        <v>298.240857382816</v>
       </c>
       <c r="S11">
-        <v>0.03995975322186777</v>
+        <v>0.0560272146368666</v>
       </c>
       <c r="T11">
-        <v>0.03995975322186777</v>
+        <v>0.07759849819061809</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H12">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I12">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J12">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.14538998022879</v>
+        <v>6.493894666666667</v>
       </c>
       <c r="N12">
-        <v>6.14538998022879</v>
+        <v>19.481684</v>
       </c>
       <c r="O12">
-        <v>0.1225496103267296</v>
+        <v>0.1270432658722128</v>
       </c>
       <c r="P12">
-        <v>0.1225496103267296</v>
+        <v>0.1490847317785038</v>
       </c>
       <c r="Q12">
-        <v>19.07297784575452</v>
+        <v>39.40600051900622</v>
       </c>
       <c r="R12">
-        <v>19.07297784575452</v>
+        <v>354.654004671056</v>
       </c>
       <c r="S12">
-        <v>0.04529325778444723</v>
+        <v>0.06662492931350601</v>
       </c>
       <c r="T12">
-        <v>0.04529325778444723</v>
+        <v>0.09227648545966152</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1177 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.068161333333333</v>
+      </c>
+      <c r="H13">
+        <v>18.204484</v>
+      </c>
+      <c r="I13">
+        <v>0.5244270828216987</v>
+      </c>
+      <c r="J13">
+        <v>0.6189532915869436</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>14.3875515</v>
+      </c>
+      <c r="N13">
+        <v>28.775103</v>
+      </c>
+      <c r="O13">
+        <v>0.2814707697442357</v>
+      </c>
+      <c r="P13">
+        <v>0.2202031668645185</v>
+      </c>
+      <c r="Q13">
+        <v>87.30598369364201</v>
+      </c>
+      <c r="R13">
+        <v>523.835902161852</v>
+      </c>
+      <c r="S13">
+        <v>0.1476108946765476</v>
+      </c>
+      <c r="T13">
+        <v>0.1362954749486627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.170058</v>
+      </c>
+      <c r="I14">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J14">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.2840475</v>
+      </c>
+      <c r="N14">
+        <v>16.568095</v>
+      </c>
+      <c r="O14">
+        <v>0.162064909128062</v>
+      </c>
+      <c r="P14">
+        <v>0.1267883207199013</v>
+      </c>
+      <c r="Q14">
+        <v>0.4695895165849999</v>
+      </c>
+      <c r="R14">
+        <v>2.81753709951</v>
+      </c>
+      <c r="S14">
+        <v>0.0007939493462105879</v>
+      </c>
+      <c r="T14">
+        <v>0.0007330875099976275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.170058</v>
+      </c>
+      <c r="I15">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J15">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.55762366666667</v>
+      </c>
+      <c r="N15">
+        <v>31.672871</v>
+      </c>
+      <c r="O15">
+        <v>0.2065440016062932</v>
+      </c>
+      <c r="P15">
+        <v>0.2423785067907964</v>
+      </c>
+      <c r="Q15">
+        <v>0.5984694551686666</v>
+      </c>
+      <c r="R15">
+        <v>5.386225096517999</v>
+      </c>
+      <c r="S15">
+        <v>0.001011850596907783</v>
+      </c>
+      <c r="T15">
+        <v>0.001401427631593497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.170058</v>
+      </c>
+      <c r="I16">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J16">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.931556333333333</v>
+      </c>
+      <c r="N16">
+        <v>17.794669</v>
+      </c>
+      <c r="O16">
+        <v>0.1160419635630586</v>
+      </c>
+      <c r="P16">
+        <v>0.13617475034254</v>
+      </c>
+      <c r="Q16">
+        <v>0.3362362023113333</v>
+      </c>
+      <c r="R16">
+        <v>3.026125820802</v>
+      </c>
+      <c r="S16">
+        <v>0.0005684848225292373</v>
+      </c>
+      <c r="T16">
+        <v>0.0007873596565230927</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.170058</v>
+      </c>
+      <c r="I17">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J17">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.460941333333333</v>
+      </c>
+      <c r="N17">
+        <v>16.382824</v>
+      </c>
+      <c r="O17">
+        <v>0.1068350900861377</v>
+      </c>
+      <c r="P17">
+        <v>0.1253705235037399</v>
+      </c>
+      <c r="Q17">
+        <v>0.3095589204213333</v>
+      </c>
+      <c r="R17">
+        <v>2.786030283791999</v>
+      </c>
+      <c r="S17">
+        <v>0.0005233807267877661</v>
+      </c>
+      <c r="T17">
+        <v>0.0007248898351252434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.170058</v>
+      </c>
+      <c r="I18">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J18">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.493894666666667</v>
+      </c>
+      <c r="N18">
+        <v>19.481684</v>
+      </c>
+      <c r="O18">
+        <v>0.1270432658722128</v>
+      </c>
+      <c r="P18">
+        <v>0.1490847317785038</v>
+      </c>
+      <c r="Q18">
+        <v>0.3681129130746666</v>
+      </c>
+      <c r="R18">
+        <v>3.313016217672</v>
+      </c>
+      <c r="S18">
+        <v>0.0006223797515599016</v>
+      </c>
+      <c r="T18">
+        <v>0.0008620049084774454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H19">
+        <v>0.170058</v>
+      </c>
+      <c r="I19">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J19">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>14.3875515</v>
+      </c>
+      <c r="N19">
+        <v>28.775103</v>
+      </c>
+      <c r="O19">
+        <v>0.2814707697442357</v>
+      </c>
+      <c r="P19">
+        <v>0.2202031668645185</v>
+      </c>
+      <c r="Q19">
+        <v>0.815572744329</v>
+      </c>
+      <c r="R19">
+        <v>4.893436465974</v>
+      </c>
+      <c r="S19">
+        <v>0.001378913762505124</v>
+      </c>
+      <c r="T19">
+        <v>0.00127321026395583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.434455</v>
+      </c>
+      <c r="I20">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J20">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>8.2840475</v>
+      </c>
+      <c r="N20">
+        <v>16.568095</v>
+      </c>
+      <c r="O20">
+        <v>0.162064909128062</v>
+      </c>
+      <c r="P20">
+        <v>0.1267883207199013</v>
+      </c>
+      <c r="Q20">
+        <v>1.199681952204167</v>
+      </c>
+      <c r="R20">
+        <v>7.198091713225</v>
+      </c>
+      <c r="S20">
+        <v>0.002028338938526391</v>
+      </c>
+      <c r="T20">
+        <v>0.001872852404215146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.10362367679137</v>
-      </c>
-      <c r="H13">
-        <v>3.10362367679137</v>
-      </c>
-      <c r="I13">
-        <v>0.3695912019931427</v>
-      </c>
-      <c r="J13">
-        <v>0.3695912019931427</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>14.3468717139337</v>
-      </c>
-      <c r="N13">
-        <v>14.3468717139337</v>
-      </c>
-      <c r="O13">
-        <v>0.2861012146676974</v>
-      </c>
-      <c r="P13">
-        <v>0.2861012146676974</v>
-      </c>
-      <c r="Q13">
-        <v>44.52729073925301</v>
-      </c>
-      <c r="R13">
-        <v>44.52729073925301</v>
-      </c>
-      <c r="S13">
-        <v>0.1057404918207324</v>
-      </c>
-      <c r="T13">
-        <v>0.1057404918207324</v>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.434455</v>
+      </c>
+      <c r="I21">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J21">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.55762366666667</v>
+      </c>
+      <c r="N21">
+        <v>31.672871</v>
+      </c>
+      <c r="O21">
+        <v>0.2065440016062932</v>
+      </c>
+      <c r="P21">
+        <v>0.2423785067907964</v>
+      </c>
+      <c r="Q21">
+        <v>1.528937463367222</v>
+      </c>
+      <c r="R21">
+        <v>13.760437170305</v>
+      </c>
+      <c r="S21">
+        <v>0.002585021293203325</v>
+      </c>
+      <c r="T21">
+        <v>0.003580291675098806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.434455</v>
+      </c>
+      <c r="I22">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J22">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.931556333333333</v>
+      </c>
+      <c r="N22">
+        <v>17.794669</v>
+      </c>
+      <c r="O22">
+        <v>0.1160419635630586</v>
+      </c>
+      <c r="P22">
+        <v>0.13617475034254</v>
+      </c>
+      <c r="Q22">
+        <v>0.8589981022661111</v>
+      </c>
+      <c r="R22">
+        <v>7.730982920394999</v>
+      </c>
+      <c r="S22">
+        <v>0.001452334342235824</v>
+      </c>
+      <c r="T22">
+        <v>0.002011503954972658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.434455</v>
+      </c>
+      <c r="I23">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J23">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.460941333333333</v>
+      </c>
+      <c r="N23">
+        <v>16.382824</v>
+      </c>
+      <c r="O23">
+        <v>0.1068350900861377</v>
+      </c>
+      <c r="P23">
+        <v>0.1253705235037399</v>
+      </c>
+      <c r="Q23">
+        <v>0.7908444223244444</v>
+      </c>
+      <c r="R23">
+        <v>7.117599800919999</v>
+      </c>
+      <c r="S23">
+        <v>0.001337104832801626</v>
+      </c>
+      <c r="T23">
+        <v>0.001851909426897515</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.434455</v>
+      </c>
+      <c r="I24">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J24">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.493894666666667</v>
+      </c>
+      <c r="N24">
+        <v>19.481684</v>
+      </c>
+      <c r="O24">
+        <v>0.1270432658722128</v>
+      </c>
+      <c r="P24">
+        <v>0.1490847317785038</v>
+      </c>
+      <c r="Q24">
+        <v>0.9404350024688889</v>
+      </c>
+      <c r="R24">
+        <v>8.46391502222</v>
+      </c>
+      <c r="S24">
+        <v>0.001590022198096867</v>
+      </c>
+      <c r="T24">
+        <v>0.002202203615899096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.434455</v>
+      </c>
+      <c r="I25">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J25">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.3875515</v>
+      </c>
+      <c r="N25">
+        <v>28.775103</v>
+      </c>
+      <c r="O25">
+        <v>0.2814707697442357</v>
+      </c>
+      <c r="P25">
+        <v>0.2202031668645185</v>
+      </c>
+      <c r="Q25">
+        <v>2.0835812289775</v>
+      </c>
+      <c r="R25">
+        <v>12.501487373865</v>
+      </c>
+      <c r="S25">
+        <v>0.003522774457474295</v>
+      </c>
+      <c r="T25">
+        <v>0.003252728864428195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.1696935</v>
+      </c>
+      <c r="H26">
+        <v>10.339387</v>
+      </c>
+      <c r="I26">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J26">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>8.2840475</v>
+      </c>
+      <c r="N26">
+        <v>16.568095</v>
+      </c>
+      <c r="O26">
+        <v>0.162064909128062</v>
+      </c>
+      <c r="P26">
+        <v>0.1267883207199013</v>
+      </c>
+      <c r="Q26">
+        <v>42.82598651444125</v>
+      </c>
+      <c r="R26">
+        <v>171.303946057765</v>
+      </c>
+      <c r="S26">
+        <v>0.07240720414977467</v>
+      </c>
+      <c r="T26">
+        <v>0.04457111968111962</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5.1696935</v>
+      </c>
+      <c r="H27">
+        <v>10.339387</v>
+      </c>
+      <c r="I27">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J27">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>10.55762366666667</v>
+      </c>
+      <c r="N27">
+        <v>31.672871</v>
+      </c>
+      <c r="O27">
+        <v>0.2065440016062932</v>
+      </c>
+      <c r="P27">
+        <v>0.2423785067907964</v>
+      </c>
+      <c r="Q27">
+        <v>54.57967844501283</v>
+      </c>
+      <c r="R27">
+        <v>327.478070670077</v>
+      </c>
+      <c r="S27">
+        <v>0.09227953028623097</v>
+      </c>
+      <c r="T27">
+        <v>0.085205651222163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5.1696935</v>
+      </c>
+      <c r="H28">
+        <v>10.339387</v>
+      </c>
+      <c r="I28">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J28">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.931556333333333</v>
+      </c>
+      <c r="N28">
+        <v>17.794669</v>
+      </c>
+      <c r="O28">
+        <v>0.1160419635630586</v>
+      </c>
+      <c r="P28">
+        <v>0.13617475034254</v>
+      </c>
+      <c r="Q28">
+        <v>30.66432822131717</v>
+      </c>
+      <c r="R28">
+        <v>183.985969327903</v>
+      </c>
+      <c r="S28">
+        <v>0.05184511681681635</v>
+      </c>
+      <c r="T28">
+        <v>0.04787082170188601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5.1696935</v>
+      </c>
+      <c r="H29">
+        <v>10.339387</v>
+      </c>
+      <c r="I29">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J29">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>5.460941333333333</v>
+      </c>
+      <c r="N29">
+        <v>16.382824</v>
+      </c>
+      <c r="O29">
+        <v>0.1068350900861377</v>
+      </c>
+      <c r="P29">
+        <v>0.1253705235037399</v>
+      </c>
+      <c r="Q29">
+        <v>28.23139291481467</v>
+      </c>
+      <c r="R29">
+        <v>169.388357488888</v>
+      </c>
+      <c r="S29">
+        <v>0.0477316787443106</v>
+      </c>
+      <c r="T29">
+        <v>0.04407270776867943</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5.1696935</v>
+      </c>
+      <c r="H30">
+        <v>10.339387</v>
+      </c>
+      <c r="I30">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J30">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>6.493894666666667</v>
+      </c>
+      <c r="N30">
+        <v>19.481684</v>
+      </c>
+      <c r="O30">
+        <v>0.1270432658722128</v>
+      </c>
+      <c r="P30">
+        <v>0.1490847317785038</v>
+      </c>
+      <c r="Q30">
+        <v>33.57144504795134</v>
+      </c>
+      <c r="R30">
+        <v>201.428670287708</v>
+      </c>
+      <c r="S30">
+        <v>0.05676026807625937</v>
+      </c>
+      <c r="T30">
+        <v>0.05240919183248004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5.1696935</v>
+      </c>
+      <c r="H31">
+        <v>10.339387</v>
+      </c>
+      <c r="I31">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J31">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>14.3875515</v>
+      </c>
+      <c r="N31">
+        <v>28.775103</v>
+      </c>
+      <c r="O31">
+        <v>0.2814707697442357</v>
+      </c>
+      <c r="P31">
+        <v>0.2202031668645185</v>
+      </c>
+      <c r="Q31">
+        <v>74.37923147046526</v>
+      </c>
+      <c r="R31">
+        <v>297.516925881861</v>
+      </c>
+      <c r="S31">
+        <v>0.1257552396549992</v>
+      </c>
+      <c r="T31">
+        <v>0.07741014037217582</v>
       </c>
     </row>
   </sheetData>
